--- a/xls/14048-108-240007085_2.xlsx
+++ b/xls/14048-108-240007085_2.xlsx
@@ -572,12 +572,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -616,12 +616,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -660,12 +660,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
